--- a/Documentation/LipSync_Macro_BOM.xlsx
+++ b/Documentation/LipSync_Macro_BOM.xlsx
@@ -1,22 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kristina Mok\Dropbox\NSS\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://neilsquiresoc.sharepoint.com/sites/MMC-RD/Shared Documents/Server/AT Projects - Internal/LipSync/Github/LipSync-Macro/Production/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5C27C0F-6C04-4AD4-8AFB-C022067D4D28}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{1A4C020F-53B9-46F4-8748-EF4B7BA076E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1770" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8655" yWindow="795" windowWidth="11370" windowHeight="7635" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="LipSync_BOM" sheetId="1" r:id="rId1"/>
+    <sheet name="LipSync_Macro_BOM" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -25,23 +34,35 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="236">
   <si>
     <t>Qty</t>
   </si>
   <si>
+    <t xml:space="preserve">Component </t>
+  </si>
+  <si>
     <t>Line Item</t>
   </si>
   <si>
     <t>Manufacturer</t>
   </si>
   <si>
+    <t>COO</t>
+  </si>
+  <si>
     <t>MPN</t>
   </si>
   <si>
     <t>SKU</t>
   </si>
   <si>
+    <t>URL ( Canada )</t>
+  </si>
+  <si>
+    <t>URL ( United States )</t>
+  </si>
+  <si>
     <t>Digi-Key</t>
   </si>
   <si>
@@ -66,15 +87,87 @@
     <t>Amazon</t>
   </si>
   <si>
+    <t>Required</t>
+  </si>
+  <si>
+    <t>Arduino Micro</t>
+  </si>
+  <si>
     <t>A000053</t>
   </si>
   <si>
     <t>Arduino</t>
   </si>
   <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1050-1066-ND </t>
+  </si>
+  <si>
+    <t xml:space="preserve">782-A000053 </t>
+  </si>
+  <si>
     <t>https://www.digikey.ca/product-detail/en/arduino/A000053/1050-1066-ND</t>
   </si>
   <si>
+    <t>https://www.digikey.com/product-detail/en/arduino/A000053/1050-1066-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Right Angle Push Button </t>
+  </si>
+  <si>
+    <t>"431256058736"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Würth Elektronik </t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>431256058736-ND</t>
+  </si>
+  <si>
+    <t>http://www.digikey.ca/product-detail/en/wurth-electronics-inc/431256058736/431256058736-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/wurth-electronics-inc/431256058736/431256058736-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">300 Ohm 1/4W Axial Through-Hole Resistor </t>
+  </si>
+  <si>
+    <t>CF14JT300R</t>
+  </si>
+  <si>
+    <t>Stackpole Electronics</t>
+  </si>
+  <si>
+    <t>CF14JT300RCT-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/product-detail/en/stackpole-electronics-inc/CF14JT300R/CF14JT300RCT-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/stackpole-electronics-inc/CF14JT300R/CF14JT300RCT-ND</t>
+  </si>
+  <si>
+    <t>10k Ohm 1/4W Mini Axial Through-Hole Resistor</t>
+  </si>
+  <si>
+    <t>CFM14JT10K0</t>
+  </si>
+  <si>
+    <t>S10KQCT-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/product-detail/en/stackpole-electronics-inc/CFM14JT10K0/S10KQCT-ND/</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/stackpole-electronics-inc/CFM14JT10K0/S10KQCT-ND/</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pressure Transducer </t>
   </si>
   <si>
@@ -84,28 +177,61 @@
     <t>NXP Semiconductors</t>
   </si>
   <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
     <t>MPXV7002DPT1CT-ND</t>
   </si>
   <si>
-    <t xml:space="preserve">Right Angle Push Button </t>
-  </si>
-  <si>
-    <t>"431256058736"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Würth Elektronik </t>
-  </si>
-  <si>
-    <t>431256058736-ND</t>
-  </si>
-  <si>
-    <t>http://www.digikey.ca/product-detail/en/wurth-electronics-inc/431256058736/431256058736-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">300 Ohm 1/4W Axial Through-Hole Resistor </t>
-  </si>
-  <si>
-    <t>Stackpole Electronics</t>
+    <t>841-MPXV7002DP</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/product-detail/en/freescale-semiconductor-nxp/MPXV7002DPT1/MPXV7002DPT1CT-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/freescale-semiconductor-nxp/MPXV7002DPT1/MPXV7002DPT1CT-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.01 uF Ceramic Through-Hole Radial Capacitor  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C315C103K5R5TA </t>
+  </si>
+  <si>
+    <t>KEMET</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">399-4148-ND </t>
+  </si>
+  <si>
+    <t>80-C315C103K5R</t>
+  </si>
+  <si>
+    <t>http://www.digikey.ca/product-detail/en/kemet/C315C103K5R5TA7303/399-9858-1-ND</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/kemet/C315C103K5R5TA7303/399-9858-1-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0 uF Ceramic Through-Hole Radial Capacitor </t>
+  </si>
+  <si>
+    <t>C315C105K3R5TA</t>
+  </si>
+  <si>
+    <t>399-9714-ND</t>
+  </si>
+  <si>
+    <t>80-C315C105K3R</t>
+  </si>
+  <si>
+    <t>http://www.digikey.ca/product-detail/en/kemet/C315C105K3R5TA/399-9714-ND</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/kemet/C315C105K3R5TA/399-9714-ND</t>
   </si>
   <si>
     <t xml:space="preserve">470 pF Ceramic Through-Hole Radial Capacitor </t>
@@ -114,31 +240,142 @@
     <t>C315C471K5R5TA</t>
   </si>
   <si>
-    <t>KEMET</t>
+    <t xml:space="preserve">C315C471K5R5TA </t>
   </si>
   <si>
     <t>399-9740-ND</t>
   </si>
   <si>
+    <t xml:space="preserve">80-C315C471K5R </t>
+  </si>
+  <si>
     <t>http://www.digikey.ca/product-detail/en/kemet/C315C471K5R5TA/399-9740-ND</t>
   </si>
   <si>
-    <t xml:space="preserve"> 0.01 uF Ceramic Through-Hole Radial Capacitor  </t>
-  </si>
-  <si>
-    <t>http://www.digikey.ca/product-detail/en/kemet/C315C103K5R5TA7303/399-9858-1-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0 uF Ceramic Through-Hole Radial Capacitor </t>
-  </si>
-  <si>
-    <t>C315C105K3R5TA</t>
-  </si>
-  <si>
-    <t>399-9714-ND</t>
-  </si>
-  <si>
-    <t>http://www.digikey.ca/product-detail/en/kemet/C315C105K3R5TA/399-9714-ND</t>
+    <t>http://www.digikey.com/product-detail/en/kemet/C315C471K5R5TA/399-9740-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17-Position Straight Female Through-Hole Headers </t>
+  </si>
+  <si>
+    <t>PPPC171LFBN-RC</t>
+  </si>
+  <si>
+    <t>Sullins</t>
+  </si>
+  <si>
+    <t>Taiwan</t>
+  </si>
+  <si>
+    <t>S7050-ND</t>
+  </si>
+  <si>
+    <t>http://www.digikey.ca/product-detail/en/sullins-connector-solutions/PPPC171LFBN-RC/S7050-ND</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/sullins-connector-solutions/PPPC171LFBN-RC/S7050-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-Position Right Angle Male Through-Hole Header </t>
+  </si>
+  <si>
+    <t xml:space="preserve">22-05-2031 </t>
+  </si>
+  <si>
+    <t>Molex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WM4101-ND </t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/product-detail/en/molex-connector-corporation/22-05-2031/WM4101-ND/</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/molex-connector-corporation/22-05-2031/WM4101-ND/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-Position Straight Female Through-Hole Header </t>
+  </si>
+  <si>
+    <t xml:space="preserve">801-87-003-10-001101 </t>
+  </si>
+  <si>
+    <t>Preci-Dip</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1212-1180-ND </t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/product-detail/en/preci-dip/801-87-003-10-001101/1212-1180-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/preci-dip/801-87-003-10-001101/1212-1180-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-Position Straight Female Through-Hole Header  </t>
+  </si>
+  <si>
+    <t>PPPC041LFBN-RC</t>
+  </si>
+  <si>
+    <t>S7037-ND</t>
+  </si>
+  <si>
+    <t>http://www.digikey.ca/product-detail/en/sullins-connector-solutions/PPPC041LFBN-RC/S7037-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/sullins-connector-solutions/PPPC041LFBN-RC/S7037-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40-Position Breakaway Straight Male Through-Hole Headers </t>
+  </si>
+  <si>
+    <t>PRPC040SAAN-RC</t>
+  </si>
+  <si>
+    <t>S1011EC-40-ND</t>
+  </si>
+  <si>
+    <t>http://www.digikey.ca/product-detail/en/sullins-connector-solutions/PRPC040SAAN-RC/S1011EC-40-ND</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/sullins-connector-solutions/PRPC040SAAN-RC/S1011EC-40-ND</t>
+  </si>
+  <si>
+    <t>5mm Bi-Color Through-Hole LED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MV5437 </t>
+  </si>
+  <si>
+    <t>Everlight Electronics Co Ltd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1080-1109-ND </t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/product-detail/en/everlight-electronics-co-ltd/MV5437/1080-1109-ND/2675600</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/everlight-electronics-co-ltd/MV5437/1080-1109-ND/2675601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jumper Shunt Connector </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSC02SYAN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">S9002-ND </t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/product-detail/en/sullins-connector-solutions/SPC02SYAN/S9002-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/sullins-connector-solutions/SPC02SYAN/S9002-ND</t>
   </si>
   <si>
     <t xml:space="preserve">2N3906 PNP-type Through-Hole Transistor </t>
@@ -156,592 +393,355 @@
     <t>http://www.digikey.ca/product-detail/en/fairchild-on-semiconductor/2N3906TFR/2N3906D26ZCT-ND</t>
   </si>
   <si>
+    <t>http://www.digikey.com/product-detail/en/fairchild-on-semiconductor/2N3906TFR/2N3906D26ZCT-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6-Position Straight Female Through-Hole Header </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPPC061LFBN-RC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sullins </t>
+  </si>
+  <si>
+    <t xml:space="preserve">S7039-ND </t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/product-detail/en/sullins-connector-solutions/PPPC061LFBN-RC/S7039-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/sullins-connector-solutions/PPPC061LFBN-RC/S7039-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sip and Puff Mouthpiece </t>
+  </si>
+  <si>
+    <t>"11648"</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>"80102"</t>
+  </si>
+  <si>
+    <t>https://www.qosina.com/stepped-male-luer-lock-connector-80102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filter PTFE Hydrophobic 17 mm, 0.2 Micron </t>
+  </si>
+  <si>
+    <t>"28213"</t>
+  </si>
+  <si>
+    <t>http://www.qosina.com/hydrophobic-filter-with-female-luer-lock-inlet-male-luer-lock-outlet-28213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luer Lock Fitting </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RK-45508-32 </t>
+  </si>
+  <si>
+    <t>https://www.coleparmer.ca/i/cole-parmer-female-luer-bulkhead-1-4-28-unf-thread-to-3-32-hose-barb-pp-25-pk/4550832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Force Resistive Sensor </t>
+  </si>
+  <si>
+    <t>30-49649</t>
+  </si>
+  <si>
+    <t>Interlink Electronics</t>
+  </si>
+  <si>
+    <t>1027-1000-ND</t>
+  </si>
+  <si>
+    <t>http://www.digikey.ca/product-detail/en/interlink-electronics/30-49649/1027-1000-ND</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/interlink-electronics/30-49649/1027-1000-ND</t>
+  </si>
+  <si>
+    <t>Screws Phillips Head M3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NMS-308 </t>
+  </si>
+  <si>
+    <t>732-13710-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/w%C3%BCrth-elektronik/97790803211/10056393</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/w%C3%BCrth-elektronik/97790803211/10056393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compression Spring  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LC 016C 03 S </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lee Spring </t>
+  </si>
+  <si>
+    <t>https://www.leespring.com/compression-springs?search=LC016C03S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Standoff M3 10mm </t>
+  </si>
+  <si>
+    <t>"25501"</t>
+  </si>
+  <si>
+    <t>Keystone</t>
+  </si>
+  <si>
+    <t>36-25501-ND</t>
+  </si>
+  <si>
+    <t>534-25501</t>
+  </si>
+  <si>
+    <t>http://www.digikey.ca/product-detail/en/keystone-electronics/25501/36-25501-ND/</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/keystone-electronics/25501/36-25501-ND/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Standoff M3 15mm </t>
+  </si>
+  <si>
+    <t>"25503"</t>
+  </si>
+  <si>
+    <t>36-25503-ND</t>
+  </si>
+  <si>
+    <t>534-25503</t>
+  </si>
+  <si>
+    <t>http://www.digikey.ca/product-detail/en/keystone-electronics/25503/36-25503-ND/</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/keystone-electronics/25503/36-25503-ND/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luer Lock Nut </t>
+  </si>
+  <si>
+    <t xml:space="preserve">45509-04 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cole-Parmer </t>
+  </si>
+  <si>
+    <t>https://www.coleparmer.ca/i/cole-parmer-panel-mount-lock-nut-1-4-28-unf-black-nylon-25-pk/4550904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bumper </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SJ-5003 (BLACK) </t>
+  </si>
+  <si>
+    <t>3M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SJ5003-0-ND </t>
+  </si>
+  <si>
+    <t>517-SJ-5003BK</t>
+  </si>
+  <si>
+    <t>https://www.mouser.ca/ProductDetail/3M-Electronic-Specialty/SJ-5003-BLACK?qs=sGAEpiMZZMvlOED0T0kTWubpGv7E7tyx</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/3m/SJ-5003-(BLACK)/SJ5003-0-ND/102574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nut M3 </t>
+  </si>
+  <si>
+    <t>Keystone Electronics</t>
+  </si>
+  <si>
+    <t>36-4708-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/product-detail/en/keystone-electronics/4708/36-4708-ND/4499301</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/keystone-electronics/4708/36-4708-ND/4499301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tubing Tygon 3350 3/32" ID x 45mm </t>
+  </si>
+  <si>
+    <t>"57289"</t>
+  </si>
+  <si>
+    <t>Tygon®</t>
+  </si>
+  <si>
+    <t>http://www.usplastic.com/catalog/item.aspx?itemid=31562&amp;catid=864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Light Pipe </t>
+  </si>
+  <si>
+    <t>51513030250F</t>
+  </si>
+  <si>
+    <t>Dialight</t>
+  </si>
+  <si>
+    <t>350-3746-ND</t>
+  </si>
+  <si>
+    <t>645-515-1303-0250F</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/search/ProductDetail.aspx?r=645-515-1303-0250F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Threaded Insert 5/8”-27 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">M-11 </t>
+  </si>
+  <si>
+    <t>WindTech</t>
+  </si>
+  <si>
+    <t>WIM11</t>
+  </si>
+  <si>
+    <t>https://www.bhphotovideo.com/c/product/850285-REG/windtech_m_11_5_8_27_f_to_1_2_m_npt.html</t>
+  </si>
+  <si>
+    <t>https://www.adorama.com/wtm11.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Threaded Adapter 5/8"-27 </t>
+  </si>
+  <si>
+    <t>Mic Adapter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAMVATE </t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/CAMVATE-Female-Male-Piece-Adapter/dp/B01GWVQ022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USB Cable 3' or 6' </t>
+  </si>
+  <si>
+    <t>UUSBHAUB3RA</t>
+  </si>
+  <si>
+    <t>Startech</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/Startech-Com-UUSBHAUB3RA-Micro-Cable-Right/dp/B001AR4NC8/ref=sr_1_1?ie=UTF8&amp;qid=1530652829&amp;sr=8-1&amp;keywords=UUSBHAUB3RA</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/StarTech-com-Micro-USB-Cable-UUSBHAUB3RA/dp/B001AR4NC8</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/huc/view.html?ie=UTF8&amp;newItems=C50dc2962-6371-4880-bf41-06ac5db860d9%2C1</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/product/B01M18TDO1/ref=ox_sc_act_title_2?smid=A21TE5CLHZDYA7&amp;psc=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USB Splitter </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JIUWU </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> USB Splitter  </t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/Wpeng-Female-degree-Micro-Splitter/dp/B01M5F47SY/ref=sr_1_2?ie=UTF8&amp;qid=1530643192&amp;sr=8-2&amp;keywords=Micro+USB+Male+To+USB+Female+Host+OTG+Cable+%2B+USB+Power+Cable+Y+Splitter</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Micro-Female-Cable-Power-Splitter/dp/B00NSBVNCM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cable Tie </t>
+  </si>
+  <si>
+    <t>298-1021-ND</t>
+  </si>
+  <si>
+    <t>Panduit Corp</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLT.6SM-M </t>
+  </si>
+  <si>
+    <t xml:space="preserve">644-PLT.6SM-M </t>
+  </si>
+  <si>
+    <t>https://www.mouser.ca/ProductDetail/Panduit/PLT6SM-M?qs=sGAEpiMZZMv3%2fYgcm0iDLApe1nFw7TiN%2fRMgiNKPBi8=</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Panduit/PLT6SM-M?qs=sGAEpiMZZMv3%2fYgcm0iDLApe1nFw7TiN%2fRMgiNKPBi8%3d</t>
+  </si>
+  <si>
+    <t>Optional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magic Arm 11" and Clamp </t>
+  </si>
+  <si>
+    <t>ZC462800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YKS / GkGk </t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/GkGk-Articulating-Friction-Adjustable-Monitor/dp/B017HKJVL4/</t>
+  </si>
+  <si>
+    <t>SparkFun Bluetooth Mate Silver</t>
+  </si>
+  <si>
+    <t>WRL-12576</t>
+  </si>
+  <si>
+    <t>SparkFun Electronics</t>
+  </si>
+  <si>
+    <t>1568-1265-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/product-detail/en/sparkfun-electronics/WRL-12576/1568-1265-ND/5762415</t>
+  </si>
+  <si>
     <t xml:space="preserve">1-Position Straight Female Through-Hole Header </t>
   </si>
   <si>
     <t>929974-01-01</t>
   </si>
   <si>
-    <t>3M</t>
-  </si>
-  <si>
     <t>929974-01-01-ND</t>
   </si>
   <si>
     <t>http://www.digikey.ca/product-detail/en/3m/929974-01-01/929974-01-01-ND</t>
   </si>
   <si>
-    <t xml:space="preserve">4-Position Straight Female Through-Hole Header  </t>
-  </si>
-  <si>
-    <t>PPPC041LFBN-RC</t>
-  </si>
-  <si>
-    <t>Sullins</t>
-  </si>
-  <si>
-    <t>S7037-ND</t>
-  </si>
-  <si>
-    <t>http://www.digikey.ca/product-detail/en/sullins-connector-solutions/PPPC041LFBN-RC/S7037-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17-Position Straight Female Through-Hole Headers </t>
-  </si>
-  <si>
-    <t>PPPC171LFBN-RC</t>
-  </si>
-  <si>
-    <t>S7050-ND</t>
-  </si>
-  <si>
-    <t>http://www.digikey.ca/product-detail/en/sullins-connector-solutions/PPPC171LFBN-RC/S7050-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40-Position Breakaway Straight Male Through-Hole Headers </t>
-  </si>
-  <si>
-    <t>PRPC040SAAN-RC</t>
-  </si>
-  <si>
-    <t>S1011EC-40-ND</t>
-  </si>
-  <si>
-    <t>http://www.digikey.ca/product-detail/en/sullins-connector-solutions/PRPC040SAAN-RC/S1011EC-40-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jumper Shunt Connector </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sip and Puff Mouthpiece </t>
-  </si>
-  <si>
-    <t>"11648"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Filter PTFE Hydrophobic 17 mm, 0.2 Micron </t>
-  </si>
-  <si>
-    <t>"28213"</t>
-  </si>
-  <si>
-    <t>http://www.qosina.com/hydrophobic-filter-with-female-luer-lock-inlet-male-luer-lock-outlet-28213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luer Lock Fitting </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RK-45508-32 </t>
-  </si>
-  <si>
-    <t>https://www.coleparmer.ca/i/cole-parmer-female-luer-bulkhead-1-4-28-unf-thread-to-3-32-hose-barb-pp-25-pk/4550832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Force Resistive Sensor </t>
-  </si>
-  <si>
-    <t>30-49649</t>
-  </si>
-  <si>
-    <t>Interlink Electronics</t>
-  </si>
-  <si>
-    <t>1027-1000-ND</t>
-  </si>
-  <si>
-    <t>http://www.digikey.com/product-detail/en/interlink-electronics/30-49649/1027-1000-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compression Spring  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LC 016C 03 S </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lee Spring </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Standoff M3 15mm </t>
-  </si>
-  <si>
-    <t>"25503"</t>
-  </si>
-  <si>
-    <t>Keystone</t>
-  </si>
-  <si>
-    <t>36-25503-ND</t>
-  </si>
-  <si>
-    <t>http://www.digikey.ca/product-detail/en/keystone-electronics/25503/36-25503-ND/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Standoff M3 10mm </t>
-  </si>
-  <si>
-    <t>"25501"</t>
-  </si>
-  <si>
-    <t>36-25501-ND</t>
-  </si>
-  <si>
-    <t>http://www.digikey.com/product-detail/en/keystone-electronics/25501/36-25501-ND/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luer Lock Nut </t>
-  </si>
-  <si>
-    <t xml:space="preserve">45509-04 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cole-Parmer </t>
-  </si>
-  <si>
-    <t>https://www.coleparmer.ca/i/cole-parmer-panel-mount-lock-nut-1-4-28-unf-black-nylon-25-pk/4550904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bumper </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nut M3 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tubing Tygon 3350 3/32" ID x 45mm </t>
-  </si>
-  <si>
-    <t>"57289"</t>
-  </si>
-  <si>
-    <t>Tygon®</t>
-  </si>
-  <si>
-    <t>http://www.usplastic.com/catalog/item.aspx?itemid=31562&amp;catid=864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Light Pipe </t>
-  </si>
-  <si>
-    <t>51513030250F</t>
-  </si>
-  <si>
-    <t>Dialight</t>
-  </si>
-  <si>
-    <t>350-3746-ND</t>
-  </si>
-  <si>
-    <t>http://www.mouser.com/search/ProductDetail.aspx?r=645-515-1303-0250F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Threaded Insert 5/8”-27 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">M-11 </t>
-  </si>
-  <si>
-    <t>WindTech</t>
-  </si>
-  <si>
-    <t>WIM11</t>
-  </si>
-  <si>
-    <t>https://www.bhphotovideo.com/c/product/850285-REG/windtech_m_11_5_8_27_f_to_1_2_m_npt.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USB Cable 3' or 6' </t>
-  </si>
-  <si>
-    <t>UUSBHAUB3RA</t>
-  </si>
-  <si>
-    <t>Startech</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USB Splitter </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JIUWU </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> USB Splitter  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cable Tie </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Magic Arm 11" and Clamp </t>
-  </si>
-  <si>
-    <t>ZC462800</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YKS / GkGk </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Threaded Adapter 5/8"-27 </t>
-  </si>
-  <si>
-    <t>Mic Adapter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAMVATE </t>
-  </si>
-  <si>
-    <t>https://www.digikey.ca/product-detail/en/stackpole-electronics-inc/CF14JT300R/CF14JT300RCT-ND</t>
-  </si>
-  <si>
-    <t>CF14JT300R</t>
-  </si>
-  <si>
-    <t>CF14JT300RCT-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6-Position Straight Female Through-Hole Header </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sullins </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PPPC061LFBN-RC </t>
-  </si>
-  <si>
-    <t xml:space="preserve">S7039-ND </t>
-  </si>
-  <si>
-    <t>https://www.digikey.ca/product-detail/en/sullins-connector-solutions/PPPC061LFBN-RC/S7039-ND</t>
-  </si>
-  <si>
-    <t>10k Ohm 1/4W Mini Axial Through-Hole Resistor</t>
-  </si>
-  <si>
-    <t>CFM14JT10K0</t>
-  </si>
-  <si>
-    <t>S10KQCT-ND</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ca/product-detail/en/stackpole-electronics-inc/CFM14JT10K0/S10KQCT-ND/</t>
-  </si>
-  <si>
-    <t>Arduino Micro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1050-1066-ND </t>
-  </si>
-  <si>
-    <t xml:space="preserve">399-4148-ND </t>
-  </si>
-  <si>
-    <t xml:space="preserve">C315C103K5R5TA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1212-1180-ND </t>
-  </si>
-  <si>
-    <t xml:space="preserve">801-87-003-10-001101 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3-Position Right Angle Male Through-Hole Header </t>
-  </si>
-  <si>
-    <t xml:space="preserve">WM4101-ND </t>
-  </si>
-  <si>
-    <t xml:space="preserve">22-05-2031 </t>
-  </si>
-  <si>
-    <t>Molex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3-Position Straight Female Through-Hole Header </t>
-  </si>
-  <si>
-    <t>Preci-Dip</t>
-  </si>
-  <si>
-    <t>5mm Bi-Color Through-Hole LED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MV5437 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1080-1109-ND </t>
-  </si>
-  <si>
-    <t xml:space="preserve">S9002-ND </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSC02SYAN </t>
-  </si>
-  <si>
-    <t>https://www.digikey.ca/product-detail/en/sullins-connector-solutions/SPC02SYAN/S9002-ND</t>
-  </si>
-  <si>
-    <t>Screws Phillips Head M3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RP809-ND </t>
-  </si>
-  <si>
-    <t xml:space="preserve">NMS-308 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Essentra Components </t>
-  </si>
-  <si>
-    <t>https://www.digikey.ca/product-detail/en/essentra-components/NMS-308/RP809-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SJ5003-0-ND </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SJ-5003 (BLACK) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Component </t>
-  </si>
-  <si>
-    <t>Optional</t>
-  </si>
-  <si>
-    <t>Required</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ca/product-detail/en/molex-connector-corporation/22-05-2031/WM4101-ND/</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ca/product-detail/en/preci-dip/801-87-003-10-001101/1212-1180-ND</t>
-  </si>
-  <si>
-    <t>Everlight Electronics Co Ltd</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ca/product-detail/en/everlight-electronics-co-ltd/MV5437/1080-1109-ND/2675600</t>
-  </si>
-  <si>
-    <t>URL ( Canada )</t>
-  </si>
-  <si>
-    <t>URL ( United States )</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/product-detail/en/arduino/A000053/1050-1066-ND</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/product-detail/en/wurth-electronics-inc/431256058736/431256058736-ND</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/product-detail/en/stackpole-electronics-inc/CF14JT300R/CF14JT300RCT-ND</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/product-detail/en/stackpole-electronics-inc/CFM14JT10K0/S10KQCT-ND/</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/product-detail/en/molex-connector-corporation/22-05-2031/WM4101-ND/</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/product-detail/en/preci-dip/801-87-003-10-001101/1212-1180-ND</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/product-detail/en/sullins-connector-solutions/PPPC041LFBN-RC/S7037-ND</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/product-detail/en/sullins-connector-solutions/SPC02SYAN/S9002-ND</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/product-detail/en/sullins-connector-solutions/PPPC061LFBN-RC/S7039-ND</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/product-detail/en/essentra-components/NMS-308/RP809-ND</t>
-  </si>
-  <si>
-    <t>http://www.digikey.ca/product-detail/en/interlink-electronics/30-49649/1027-1000-ND</t>
-  </si>
-  <si>
-    <t>http://www.digikey.ca/product-detail/en/keystone-electronics/25501/36-25501-ND/</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/StarTech-com-Micro-USB-Cable-UUSBHAUB3RA/dp/B001AR4NC8</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Micro-Female-Cable-Power-Splitter/dp/B00NSBVNCM</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/GkGk-Articulating-Friction-Adjustable-Monitor/dp/B017HKJVL4/</t>
-  </si>
-  <si>
-    <t>http://www.digikey.com/product-detail/en/kemet/C315C103K5R5TA7303/399-9858-1-ND</t>
-  </si>
-  <si>
-    <t>http://www.digikey.com/product-detail/en/kemet/C315C105K3R5TA/399-9714-ND</t>
-  </si>
-  <si>
-    <t>http://www.digikey.com/product-detail/en/kemet/C315C471K5R5TA/399-9740-ND</t>
-  </si>
-  <si>
-    <t>http://www.digikey.com/product-detail/en/sullins-connector-solutions/PPPC171LFBN-RC/S7050-ND</t>
-  </si>
-  <si>
-    <t>http://www.digikey.com/product-detail/en/sullins-connector-solutions/PRPC040SAAN-RC/S1011EC-40-ND</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/product-detail/en/everlight-electronics-co-ltd/MV5437/1080-1109-ND/2675601</t>
-  </si>
-  <si>
-    <t>http://www.digikey.com/product-detail/en/fairchild-on-semiconductor/2N3906TFR/2N3906D26ZCT-ND</t>
-  </si>
-  <si>
-    <t>http://www.digikey.com/product-detail/en/3m/929974-01-01/929974-01-01-ND</t>
-  </si>
-  <si>
-    <t>http://www.digikey.com/product-detail/en/keystone-electronics/25503/36-25503-ND/</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/product-detail/en/3m/SJ-5003-(BLACK)/SJ5003-0-ND/102574</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ca/product-detail/en/freescale-semiconductor-nxp/MPXV7002DPT1/MPXV7002DPT1CT-ND</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/product-detail/en/freescale-semiconductor-nxp/MPXV7002DPT1/MPXV7002DPT1CT-ND</t>
-  </si>
-  <si>
-    <t>80-C315C103K5R</t>
-  </si>
-  <si>
-    <t>841-MPXV7002DP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">782-A000053 </t>
-  </si>
-  <si>
-    <t>80-C315C105K3R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80-C315C471K5R </t>
-  </si>
-  <si>
-    <t>534-25501</t>
-  </si>
-  <si>
-    <t>534-25503</t>
-  </si>
-  <si>
-    <t>517-SJ-5003BK</t>
-  </si>
-  <si>
-    <t>645-515-1303-0250F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C315C471K5R5TA </t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/CAMVATE-Female-Male-Piece-Adapter/dp/B01GWVQ022</t>
-  </si>
-  <si>
-    <t>36-4708-ND</t>
-  </si>
-  <si>
-    <t>Keystone Electronics</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ca/product-detail/en/keystone-electronics/4708/36-4708-ND/4499301</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/product-detail/en/keystone-electronics/4708/36-4708-ND/4499301</t>
-  </si>
-  <si>
-    <t>Panduit Corp</t>
-  </si>
-  <si>
-    <t>298-1021-ND</t>
-  </si>
-  <si>
-    <t>Italy</t>
-  </si>
-  <si>
-    <t>USA</t>
-  </si>
-  <si>
-    <t>Mexico</t>
-  </si>
-  <si>
-    <t>China</t>
-  </si>
-  <si>
-    <t>COO</t>
-  </si>
-  <si>
-    <t>Malaysia</t>
-  </si>
-  <si>
-    <t>Taiwan</t>
-  </si>
-  <si>
-    <t>Switzerland</t>
-  </si>
-  <si>
-    <t>Singapore</t>
-  </si>
-  <si>
-    <t>"80102"</t>
-  </si>
-  <si>
-    <t>https://www.qosina.com/stepped-male-luer-lock-connector-80102</t>
-  </si>
-  <si>
-    <t>https://www.mouser.ca/ProductDetail/3M-Electronic-Specialty/SJ-5003-BLACK?qs=sGAEpiMZZMvlOED0T0kTWubpGv7E7tyx</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/Panduit/PLT6SM-M?qs=sGAEpiMZZMv3%2fYgcm0iDLApe1nFw7TiN%2fRMgiNKPBi8%3d</t>
-  </si>
-  <si>
-    <t>https://www.mouser.ca/ProductDetail/Panduit/PLT6SM-M?qs=sGAEpiMZZMv3%2fYgcm0iDLApe1nFw7TiN%2fRMgiNKPBi8=</t>
-  </si>
-  <si>
-    <t xml:space="preserve">644-PLT.6SM-M </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLT.6SM-M </t>
-  </si>
-  <si>
-    <t>https://www.adorama.com/wtm11.html</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/Wpeng-Female-degree-Micro-Splitter/dp/B01M5F47SY/ref=sr_1_2?ie=UTF8&amp;qid=1530643192&amp;sr=8-2&amp;keywords=Micro+USB+Male+To+USB+Female+Host+OTG+Cable+%2B+USB+Power+Cable+Y+Splitter</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/Startech-Com-UUSBHAUB3RA-Micro-Cable-Right/dp/B001AR4NC8/ref=sr_1_1?ie=UTF8&amp;qid=1530652829&amp;sr=8-1&amp;keywords=UUSBHAUB3RA</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/huc/view.html?ie=UTF8&amp;newItems=C50dc2962-6371-4880-bf41-06ac5db860d9%2C1</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/product/B01M18TDO1/ref=ox_sc_act_title_2?smid=A21TE5CLHZDYA7&amp;psc=1</t>
-  </si>
-  <si>
-    <t>https://www.leespring.com/compression-springs?search=LC016C03S</t>
-  </si>
-  <si>
-    <t>Component name (August 12, 2019)</t>
-  </si>
-  <si>
-    <t>SparkFun Bluetooth Mate Silver</t>
-  </si>
-  <si>
-    <t>WRL-12576</t>
-  </si>
-  <si>
-    <t>SparkFun Electronics</t>
-  </si>
-  <si>
-    <t>1568-1265-ND</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ca/product-detail/en/sparkfun-electronics/WRL-12576/1568-1265-ND/5762415</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/product-detail/en/sparkfun-electronics/WRL-12576/1568-1265-ND/5762415</t>
+    <t>Component name (September 1, 2021)</t>
   </si>
 </sst>
 </file>
@@ -1237,10 +1237,12 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1600,1425 +1602,1712 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="50.44140625" customWidth="1"/>
-    <col min="4" max="4" width="35.44140625" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="23.109375" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" customWidth="1"/>
-    <col min="7" max="7" width="24.6640625" customWidth="1"/>
-    <col min="8" max="8" width="27.6640625" customWidth="1"/>
-    <col min="9" max="9" width="13.109375" customWidth="1"/>
-    <col min="10" max="11" width="8.6640625" customWidth="1"/>
-    <col min="12" max="12" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="8.6640625" customWidth="1"/>
-    <col min="16" max="16" width="200.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.42578125" customWidth="1"/>
+    <col min="4" max="4" width="35.42578125" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" customWidth="1"/>
+    <col min="7" max="7" width="24.7109375" customWidth="1"/>
+    <col min="8" max="8" width="27.7109375" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" customWidth="1"/>
+    <col min="10" max="11" width="8.7109375" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="8.7109375" customWidth="1"/>
+    <col min="16" max="16" width="200.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>157</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>214</v>
+        <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P1" t="s">
-        <v>164</v>
+        <v>7</v>
       </c>
       <c r="Q1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="H2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="K2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="L2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="M2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="N2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="O2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>159</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>132</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>210</v>
+        <v>21</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>133</v>
+        <v>22</v>
       </c>
       <c r="I3" t="s">
-        <v>195</v>
+        <v>23</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>159</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F4" t="s">
-        <v>213</v>
+        <v>29</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="H4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>159</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>121</v>
+        <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="F5" t="s">
-        <v>213</v>
+        <v>29</v>
       </c>
       <c r="G5" t="s">
-        <v>121</v>
+        <v>34</v>
       </c>
       <c r="H5" t="s">
-        <v>122</v>
+        <v>36</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>120</v>
+        <v>37</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>159</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>128</v>
+        <v>39</v>
       </c>
       <c r="D6" t="s">
-        <v>129</v>
+        <v>40</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="F6" t="s">
-        <v>213</v>
+        <v>29</v>
       </c>
       <c r="G6" t="s">
-        <v>129</v>
+        <v>40</v>
       </c>
       <c r="H6" t="s">
-        <v>130</v>
+        <v>41</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>131</v>
+        <v>42</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>159</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="F7" t="s">
-        <v>215</v>
+        <v>47</v>
       </c>
       <c r="G7" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="H7" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>194</v>
+        <v>49</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>191</v>
+        <v>50</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>1</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q8" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I8" t="s">
+        <v>57</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>159</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>212</v>
+        <v>54</v>
+      </c>
+      <c r="F9" t="s">
+        <v>55</v>
       </c>
       <c r="G9" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="H9" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="I9" t="s">
-        <v>196</v>
+        <v>63</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>159</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>212</v>
+        <v>54</v>
+      </c>
+      <c r="F10" t="s">
+        <v>55</v>
       </c>
       <c r="G10" t="s">
-        <v>202</v>
+        <v>68</v>
       </c>
       <c r="H10" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="I10" t="s">
-        <v>197</v>
+        <v>70</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>159</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="D11" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="E11" t="s">
-        <v>50</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>216</v>
+        <v>75</v>
+      </c>
+      <c r="F11" t="s">
+        <v>76</v>
       </c>
       <c r="G11" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="H11" t="s">
+        <v>77</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" t="s">
+        <v>82</v>
+      </c>
+      <c r="F12" t="s">
         <v>55</v>
       </c>
-      <c r="P11" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q11" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
+      <c r="G12" t="s">
+        <v>81</v>
+      </c>
+      <c r="H12" t="s">
+        <v>83</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>2</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q12" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
-        <v>2</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="P13" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q13" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E13" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" t="s">
+        <v>89</v>
+      </c>
+      <c r="G13" t="s">
+        <v>87</v>
+      </c>
+      <c r="H13" t="s">
+        <v>90</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>159</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="D14" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="E14" t="s">
-        <v>50</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>216</v>
+        <v>75</v>
+      </c>
+      <c r="F14" t="s">
+        <v>76</v>
       </c>
       <c r="G14" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="H14" t="s">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>159</v>
+        <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="D15" t="s">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="E15" t="s">
-        <v>50</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>216</v>
+        <v>75</v>
+      </c>
+      <c r="F15" t="s">
+        <v>76</v>
       </c>
       <c r="G15" t="s">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="H15" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>1</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="P16" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q16" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D16" t="s">
+        <v>104</v>
+      </c>
+      <c r="E16" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" t="s">
+        <v>104</v>
+      </c>
+      <c r="H16" t="s">
+        <v>106</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>1</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="P17" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q17" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>109</v>
+      </c>
+      <c r="D17" t="s">
+        <v>110</v>
+      </c>
+      <c r="E17" t="s">
+        <v>75</v>
+      </c>
+      <c r="F17" t="s">
+        <v>76</v>
+      </c>
+      <c r="G17" t="s">
+        <v>110</v>
+      </c>
+      <c r="H17" t="s">
+        <v>111</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>159</v>
+        <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
+        <v>114</v>
       </c>
       <c r="D18" t="s">
-        <v>39</v>
+        <v>115</v>
       </c>
       <c r="E18" t="s">
-        <v>40</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>213</v>
+        <v>116</v>
+      </c>
+      <c r="F18" t="s">
+        <v>29</v>
       </c>
       <c r="G18" t="s">
-        <v>39</v>
+        <v>115</v>
       </c>
       <c r="H18" t="s">
-        <v>41</v>
+        <v>117</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>42</v>
+        <v>118</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>159</v>
+      <c r="B19" t="s">
+        <v>17</v>
       </c>
       <c r="C19" t="s">
+        <v>120</v>
+      </c>
+      <c r="D19" t="s">
+        <v>121</v>
+      </c>
+      <c r="E19" t="s">
+        <v>122</v>
+      </c>
+      <c r="F19" t="s">
+        <v>76</v>
+      </c>
+      <c r="G19" t="s">
+        <v>121</v>
+      </c>
+      <c r="H19" t="s">
         <v>123</v>
       </c>
-      <c r="D19" t="s">
+      <c r="P19" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q19" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E19" t="s">
-        <v>124</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="G19" t="s">
-        <v>125</v>
-      </c>
-      <c r="H19" t="s">
-        <v>126</v>
-      </c>
-      <c r="P19" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q19" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>159</v>
+      <c r="B20" t="s">
+        <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>62</v>
+        <v>126</v>
       </c>
       <c r="D20" t="s">
-        <v>63</v>
+        <v>127</v>
       </c>
       <c r="E20" t="s">
-        <v>7</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>211</v>
+        <v>11</v>
+      </c>
+      <c r="F20" t="s">
+        <v>128</v>
       </c>
       <c r="G20" t="s">
-        <v>219</v>
+        <v>129</v>
       </c>
       <c r="J20" t="s">
-        <v>219</v>
+        <v>129</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>220</v>
+        <v>130</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>159</v>
+      <c r="B21" t="s">
+        <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>64</v>
+        <v>131</v>
       </c>
       <c r="D21" t="s">
-        <v>65</v>
+        <v>132</v>
       </c>
       <c r="E21" t="s">
-        <v>7</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>211</v>
+        <v>11</v>
+      </c>
+      <c r="F21" t="s">
+        <v>128</v>
       </c>
       <c r="G21" t="s">
-        <v>65</v>
+        <v>132</v>
       </c>
       <c r="J21" t="s">
-        <v>65</v>
+        <v>132</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>66</v>
+        <v>133</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>159</v>
+      <c r="B22" t="s">
+        <v>17</v>
       </c>
       <c r="C22" t="s">
-        <v>67</v>
+        <v>134</v>
       </c>
       <c r="D22" t="s">
-        <v>68</v>
+        <v>135</v>
       </c>
       <c r="E22" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>211</v>
+        <v>12</v>
+      </c>
+      <c r="F22" t="s">
+        <v>128</v>
       </c>
       <c r="G22" t="s">
-        <v>68</v>
+        <v>135</v>
       </c>
       <c r="K22" t="s">
-        <v>68</v>
+        <v>135</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>69</v>
+        <v>136</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>4</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>159</v>
+      <c r="B23" t="s">
+        <v>17</v>
       </c>
       <c r="C23" t="s">
-        <v>70</v>
+        <v>137</v>
       </c>
       <c r="D23" t="s">
-        <v>71</v>
+        <v>138</v>
       </c>
       <c r="E23" t="s">
-        <v>72</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>213</v>
+        <v>139</v>
+      </c>
+      <c r="F23" t="s">
+        <v>29</v>
       </c>
       <c r="G23" t="s">
-        <v>71</v>
+        <v>138</v>
       </c>
       <c r="H23" t="s">
-        <v>73</v>
+        <v>140</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>176</v>
+        <v>141</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>4</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="P24" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q24" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" t="s">
+        <v>143</v>
+      </c>
+      <c r="D24" t="s">
+        <v>144</v>
+      </c>
+      <c r="E24" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" t="s">
+        <v>29</v>
+      </c>
+      <c r="G24" s="4">
+        <v>97790803211</v>
+      </c>
+      <c r="H24" t="s">
+        <v>145</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q24" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>6</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>159</v>
+      <c r="B25" t="s">
+        <v>17</v>
       </c>
       <c r="C25" t="s">
-        <v>75</v>
+        <v>148</v>
       </c>
       <c r="D25" t="s">
-        <v>76</v>
+        <v>149</v>
       </c>
       <c r="E25" t="s">
-        <v>77</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>213</v>
+        <v>150</v>
+      </c>
+      <c r="F25" t="s">
+        <v>29</v>
       </c>
       <c r="G25" t="s">
-        <v>76</v>
+        <v>149</v>
       </c>
       <c r="L25" t="s">
-        <v>76</v>
+        <v>149</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>231</v>
+        <v>151</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>159</v>
+      <c r="B26" t="s">
+        <v>17</v>
       </c>
       <c r="C26" t="s">
-        <v>83</v>
+        <v>152</v>
       </c>
       <c r="D26" t="s">
-        <v>84</v>
+        <v>153</v>
       </c>
       <c r="E26" t="s">
-        <v>80</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>211</v>
+        <v>154</v>
+      </c>
+      <c r="F26" t="s">
+        <v>128</v>
       </c>
       <c r="G26" t="s">
-        <v>84</v>
+        <v>153</v>
       </c>
       <c r="H26" t="s">
-        <v>85</v>
+        <v>155</v>
       </c>
       <c r="I26" t="s">
-        <v>198</v>
+        <v>156</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" t="s">
         <v>159</v>
       </c>
-      <c r="C27" t="s">
-        <v>78</v>
-      </c>
       <c r="D27" t="s">
-        <v>79</v>
+        <v>160</v>
       </c>
       <c r="E27" t="s">
-        <v>80</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>211</v>
+        <v>154</v>
+      </c>
+      <c r="F27" t="s">
+        <v>128</v>
       </c>
       <c r="G27" t="s">
-        <v>79</v>
+        <v>160</v>
       </c>
       <c r="H27" t="s">
-        <v>81</v>
+        <v>161</v>
       </c>
       <c r="I27" t="s">
-        <v>199</v>
+        <v>162</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>82</v>
+        <v>163</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>159</v>
+      <c r="B28" t="s">
+        <v>17</v>
       </c>
       <c r="C28" t="s">
-        <v>87</v>
+        <v>165</v>
       </c>
       <c r="D28" t="s">
-        <v>88</v>
+        <v>166</v>
       </c>
       <c r="E28" t="s">
-        <v>89</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>211</v>
+        <v>167</v>
+      </c>
+      <c r="F28" t="s">
+        <v>128</v>
       </c>
       <c r="G28" t="s">
-        <v>88</v>
+        <v>166</v>
       </c>
       <c r="K28" t="s">
-        <v>88</v>
+        <v>166</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>90</v>
+        <v>168</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29">
         <v>4</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>155</v>
+      <c r="B29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" t="s">
+        <v>169</v>
+      </c>
+      <c r="D29" t="s">
+        <v>170</v>
+      </c>
+      <c r="E29" t="s">
+        <v>171</v>
+      </c>
+      <c r="F29" t="s">
+        <v>128</v>
+      </c>
+      <c r="G29" t="s">
+        <v>170</v>
+      </c>
+      <c r="H29" t="s">
+        <v>172</v>
       </c>
       <c r="I29" t="s">
-        <v>200</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+        <v>173</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q29" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>4</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>159</v>
+      <c r="B30" t="s">
+        <v>17</v>
       </c>
       <c r="C30" t="s">
-        <v>92</v>
-      </c>
-      <c r="D30" s="4">
+        <v>176</v>
+      </c>
+      <c r="D30" s="3">
         <v>4708</v>
       </c>
       <c r="E30" t="s">
-        <v>205</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="G30" s="4">
+        <v>177</v>
+      </c>
+      <c r="F30" t="s">
+        <v>76</v>
+      </c>
+      <c r="G30" s="3">
         <v>4708</v>
       </c>
       <c r="H30" t="s">
-        <v>204</v>
+        <v>178</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>206</v>
+        <v>179</v>
       </c>
       <c r="Q30" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>159</v>
+      <c r="B31" t="s">
+        <v>17</v>
       </c>
       <c r="C31" t="s">
-        <v>93</v>
+        <v>181</v>
       </c>
       <c r="D31" t="s">
-        <v>94</v>
+        <v>182</v>
       </c>
       <c r="E31" t="s">
-        <v>95</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>211</v>
+        <v>183</v>
+      </c>
+      <c r="F31" t="s">
+        <v>128</v>
       </c>
       <c r="G31" t="s">
-        <v>94</v>
+        <v>182</v>
       </c>
       <c r="M31" t="s">
-        <v>94</v>
+        <v>182</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>96</v>
+        <v>184</v>
       </c>
       <c r="Q31" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>1</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>159</v>
+        <v>2</v>
+      </c>
+      <c r="B32" t="s">
+        <v>17</v>
       </c>
       <c r="C32" t="s">
-        <v>97</v>
+        <v>185</v>
       </c>
       <c r="D32" t="s">
-        <v>98</v>
+        <v>186</v>
       </c>
       <c r="E32" t="s">
-        <v>99</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>215</v>
+        <v>187</v>
+      </c>
+      <c r="F32" t="s">
+        <v>47</v>
       </c>
       <c r="G32" t="s">
-        <v>98</v>
+        <v>186</v>
       </c>
       <c r="H32" t="s">
-        <v>100</v>
+        <v>188</v>
       </c>
       <c r="I32" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>101</v>
+        <v>190</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>159</v>
+      <c r="B33" t="s">
+        <v>17</v>
       </c>
       <c r="C33" t="s">
-        <v>102</v>
+        <v>191</v>
       </c>
       <c r="D33" t="s">
-        <v>103</v>
+        <v>192</v>
       </c>
       <c r="E33" t="s">
-        <v>104</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>211</v>
+        <v>193</v>
+      </c>
+      <c r="F33" t="s">
+        <v>128</v>
       </c>
       <c r="G33" t="s">
-        <v>103</v>
+        <v>192</v>
       </c>
       <c r="N33" t="s">
-        <v>105</v>
+        <v>194</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>106</v>
+        <v>195</v>
       </c>
       <c r="Q33" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>159</v>
+      <c r="B34" t="s">
+        <v>17</v>
       </c>
       <c r="C34" t="s">
-        <v>117</v>
+        <v>197</v>
       </c>
       <c r="D34" t="s">
-        <v>118</v>
+        <v>198</v>
       </c>
       <c r="E34" t="s">
-        <v>119</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>213</v>
+        <v>199</v>
+      </c>
+      <c r="F34" t="s">
+        <v>29</v>
       </c>
       <c r="G34" t="s">
-        <v>118</v>
+        <v>198</v>
       </c>
       <c r="O34" t="s">
-        <v>118</v>
+        <v>198</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="Q34" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>159</v>
+      <c r="B35" t="s">
+        <v>17</v>
       </c>
       <c r="C35" t="s">
-        <v>107</v>
+        <v>201</v>
       </c>
       <c r="D35" t="s">
-        <v>108</v>
+        <v>202</v>
       </c>
       <c r="E35" t="s">
-        <v>109</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>213</v>
+        <v>203</v>
+      </c>
+      <c r="F35" t="s">
+        <v>29</v>
       </c>
       <c r="G35" t="s">
-        <v>108</v>
+        <v>202</v>
       </c>
       <c r="O35" t="s">
-        <v>107</v>
+        <v>201</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="Q35" s="1" t="s">
-        <v>178</v>
+        <v>205</v>
       </c>
       <c r="R35" t="s">
-        <v>229</v>
+        <v>206</v>
       </c>
       <c r="S35" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>159</v>
+      <c r="B36" t="s">
+        <v>17</v>
       </c>
       <c r="C36" t="s">
-        <v>110</v>
+        <v>208</v>
       </c>
       <c r="D36" t="s">
-        <v>110</v>
+        <v>208</v>
       </c>
       <c r="E36" t="s">
-        <v>111</v>
+        <v>209</v>
       </c>
       <c r="F36" t="s">
-        <v>213</v>
+        <v>29</v>
       </c>
       <c r="G36" t="s">
-        <v>110</v>
+        <v>208</v>
       </c>
       <c r="O36" t="s">
-        <v>112</v>
+        <v>210</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="Q36" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>159</v>
+      <c r="B37" t="s">
+        <v>17</v>
       </c>
       <c r="C37" t="s">
-        <v>113</v>
+        <v>213</v>
       </c>
       <c r="D37" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="E37" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="F37" t="s">
+        <v>216</v>
+      </c>
+      <c r="G37" t="s">
+        <v>217</v>
+      </c>
+      <c r="I37" t="s">
         <v>218</v>
       </c>
-      <c r="G37" t="s">
-        <v>225</v>
-      </c>
-      <c r="I37" t="s">
-        <v>224</v>
-      </c>
       <c r="P37" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="Q37" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1</v>
       </c>
       <c r="B38" t="s">
-        <v>158</v>
+        <v>221</v>
       </c>
       <c r="C38" t="s">
-        <v>114</v>
+        <v>222</v>
       </c>
       <c r="D38" t="s">
-        <v>115</v>
+        <v>223</v>
       </c>
       <c r="E38" t="s">
-        <v>116</v>
+        <v>224</v>
       </c>
       <c r="F38" t="s">
-        <v>213</v>
+        <v>29</v>
       </c>
       <c r="G38" t="s">
-        <v>115</v>
+        <v>223</v>
       </c>
       <c r="O38" t="s">
-        <v>114</v>
+        <v>222</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>180</v>
+        <v>225</v>
       </c>
       <c r="Q38" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1</v>
       </c>
       <c r="B39" t="s">
-        <v>158</v>
+        <v>221</v>
       </c>
       <c r="C39" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="D39" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="E39" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="F39" t="s">
-        <v>210</v>
+        <v>21</v>
       </c>
       <c r="G39" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="H39" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="P39" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q39" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+        <v>230</v>
+      </c>
+      <c r="Q39" s="1"/>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1</v>
       </c>
       <c r="B40" t="s">
-        <v>158</v>
+        <v>221</v>
       </c>
       <c r="C40" t="s">
-        <v>43</v>
+        <v>231</v>
       </c>
       <c r="D40" t="s">
-        <v>44</v>
+        <v>232</v>
       </c>
       <c r="E40" t="s">
-        <v>45</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>211</v>
+        <v>171</v>
+      </c>
+      <c r="F40" t="s">
+        <v>128</v>
       </c>
       <c r="G40" t="s">
-        <v>44</v>
+        <v>232</v>
       </c>
       <c r="H40" t="s">
-        <v>46</v>
+        <v>233</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q40" s="1" t="s">
-        <v>188</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="Q40" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="P5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="P7" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="P6" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="P19" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="P10" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="P8" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="P9" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="P18" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="P40" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="P14" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="P12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="P11" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="P15" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="P16" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="P17" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="P21" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="P22" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="P23" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="P24" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="P27" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="P26" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="P28" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="P30" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="P31" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="P32" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="P33" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="P38" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="P3" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="P4" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="P13" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="Q3" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="Q4" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="Q5" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="Q6" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="Q7" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="Q8" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="Q9" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="Q10" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="Q11" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="Q12" r:id="rId40" display="https://www.digikey.ca/product-detail/en/molex-connector-corporation/22-05-2031/WM4101-ND/" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="Q13" r:id="rId41" display="https://www.digikey.ca/product-detail/en/preci-dip/801-87-003-10-001101/1212-1180-ND" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="Q14" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="Q15" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="Q16" r:id="rId44" display="https://www.digikey.ca/product-detail/en/everlight-electronics-co-ltd/MV5437/1080-1109-ND/2675600" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="Q17" r:id="rId45" display="https://www.digikey.ca/product-detail/en/sullins-connector-solutions/SPC02SYAN/S9002-ND" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="Q18" r:id="rId46" display="http://www.digikey.ca/product-detail/en/fairchild-on-semiconductor/2N3906TFR/2N3906D26ZCT-ND" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="Q19" r:id="rId47" display="https://www.digikey.ca/product-detail/en/sullins-connector-solutions/PPPC061LFBN-RC/S7039-ND" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="Q40" r:id="rId48" display="http://www.digikey.ca/product-detail/en/3m/929974-01-01/929974-01-01-ND" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="Q21" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="Q22" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="Q23" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="Q24" r:id="rId52" display="https://www.digikey.ca/product-detail/en/essentra-components/NMS-308/RP809-ND" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="Q26" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="Q27" r:id="rId54" display="http://www.digikey.ca/product-detail/en/keystone-electronics/25503/36-25503-ND/" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="Q28" r:id="rId55" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="Q29" r:id="rId56" display="https://www.digikey.ca/product-detail/en/3m/SJ-5003-(BLACK)/SJ5003-0-ND/102573" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="Q30" r:id="rId57" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="Q31" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="Q32" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="Q34" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="Q35" r:id="rId61" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="Q36" r:id="rId62" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="Q38" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="P34" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="P35" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="Q33" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="P25" r:id="rId67" xr:uid="{4CCDA3FE-08D0-46DF-9B30-73A601C4D5A0}"/>
-    <hyperlink ref="Q25" r:id="rId68" xr:uid="{4DAFF11F-FB4D-4481-B87D-4D729F143D51}"/>
-    <hyperlink ref="Q39" r:id="rId69" xr:uid="{E2C07D5B-A2F3-42F7-987F-7A51DAB010DE}"/>
+    <hyperlink ref="P6" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="P19" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="P10" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="P8" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="P9" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="P18" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="P14" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="P12" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="P11" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="P15" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="P16" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="P17" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="P21" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="P22" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="P23" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="P27" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="P26" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="P28" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="P30" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="P31" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="P32" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="P33" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="P38" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="P3" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="P4" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="P13" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="Q3" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="Q4" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="Q5" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="Q6" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="Q7" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="Q8" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="Q9" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="Q10" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="Q11" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="Q12" r:id="rId38" display="https://www.digikey.ca/product-detail/en/molex-connector-corporation/22-05-2031/WM4101-ND/" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="Q13" r:id="rId39" display="https://www.digikey.ca/product-detail/en/preci-dip/801-87-003-10-001101/1212-1180-ND" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="Q14" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="Q15" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="Q16" r:id="rId42" display="https://www.digikey.ca/product-detail/en/everlight-electronics-co-ltd/MV5437/1080-1109-ND/2675600" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="Q17" r:id="rId43" display="https://www.digikey.ca/product-detail/en/sullins-connector-solutions/SPC02SYAN/S9002-ND" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="Q18" r:id="rId44" display="http://www.digikey.ca/product-detail/en/fairchild-on-semiconductor/2N3906TFR/2N3906D26ZCT-ND" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="Q19" r:id="rId45" display="https://www.digikey.ca/product-detail/en/sullins-connector-solutions/PPPC061LFBN-RC/S7039-ND" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="Q21" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="Q22" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="Q23" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="Q26" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="Q27" r:id="rId50" display="http://www.digikey.ca/product-detail/en/keystone-electronics/25503/36-25503-ND/" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="Q28" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="Q29" r:id="rId52" display="https://www.digikey.ca/product-detail/en/3m/SJ-5003-(BLACK)/SJ5003-0-ND/102573" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="Q30" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="Q31" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="Q32" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="Q34" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="Q35" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="Q36" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="Q38" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="P34" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="P35" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="Q33" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="P25" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="Q25" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="P40" r:id="rId65" xr:uid="{A6D2065D-FECC-4192-84BA-8E280B797870}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B51EC7ECFAC78D4E8EF6CBAFFF0B3505" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a38268523a36e7284a4a2063ac01106c">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cf9f6c1f-8ad0-4eb8-bb2b-fb0b622a341e" xmlns:ns3="72c39c84-b0a3-45a2-a38c-ff46bb47f11f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="890835d1009e2f2eb5b198bf07e33774" ns2:_="" ns3:_="">
+    <xsd:import namespace="cf9f6c1f-8ad0-4eb8-bb2b-fb0b622a341e"/>
+    <xsd:import namespace="72c39c84-b0a3-45a2-a38c-ff46bb47f11f"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="cf9f6c1f-8ad0-4eb8-bb2b-fb0b622a341e" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="12" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="13" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="14" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="15" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="16" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="Length (seconds)" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="21" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="26ec1fed-e6ae-4c84-a4ac-123136fd9316" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="72c39c84-b0a3-45a2-a38c-ff46bb47f11f" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="22" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{230263d0-9f1a-4e63-a49c-f06b563fb00a}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="72c39c84-b0a3-45a2-a38c-ff46bb47f11f">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="cf9f6c1f-8ad0-4eb8-bb2b-fb0b622a341e">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="72c39c84-b0a3-45a2-a38c-ff46bb47f11f" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{876314B7-4AE1-4731-BFA5-C3404A03FEB0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="cf9f6c1f-8ad0-4eb8-bb2b-fb0b622a341e"/>
+    <ds:schemaRef ds:uri="72c39c84-b0a3-45a2-a38c-ff46bb47f11f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5DA7E193-43CA-46A2-A341-6C141C4D93FD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4AA161D-5BED-418C-8293-7081DCF77449}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="cf9f6c1f-8ad0-4eb8-bb2b-fb0b622a341e"/>
+    <ds:schemaRef ds:uri="72c39c84-b0a3-45a2-a38c-ff46bb47f11f"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>